--- a/uni_craw_korea/image/new_excel_file_2.xlsx
+++ b/uni_craw_korea/image/new_excel_file_2.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/threads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_314162EEF613C8A64D337BD0ED4BFCE5611E53BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_314162EEF613C8A64D337BD0ED4BFCE5611E53BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FE71C9-549C-4A20-AE89-9843FC71E3D2}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23565" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -223,16 +236,16 @@
     <t>['https://unipass.customs.go.kr/clip/framework/filedownload/kcs4gImageDownload.do?attchFileId=PCA-20180322-0000222614415Nhh']</t>
   </si>
   <si>
-    <t>https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064301SWFdf.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064302JKHR8.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064303NmjNJ.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064304FeW0B.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064305t0FZa.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064306ZdABJ.jpg</t>
-  </si>
-  <si>
-    <t>https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190802-00003061736ZOLPF.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190802-00003061737IjmXw.jpg</t>
-  </si>
-  <si>
-    <t>https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066878KusMT.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066879ZOAiP.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066884KwrRT.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066885E9sIm.jpg</t>
-  </si>
-  <si>
-    <t>https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20180322-0000222614415Nhh.jpg</t>
+    <t>[https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064301SWFdf.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064302JKHR8.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064303NmjNJ.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064304FeW0B.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064305t0FZa.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064306ZdABJ.jpg]</t>
+  </si>
+  <si>
+    <t>[https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20180322-0000222614415Nhh.jpg]</t>
+  </si>
+  <si>
+    <t>[https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066878KusMT.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066879ZOAiP.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066884KwrRT.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066885E9sIm.jpg]</t>
+  </si>
+  <si>
+    <t>[https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190802-00003061736ZOLPF.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190802-00003061737IjmXw.jpg]</t>
   </si>
 </sst>
 </file>
@@ -615,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +727,7 @@
         <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,7 +878,7 @@
         <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,10 +941,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190805-00003064301SWFdf.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximu" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" display="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190802-00003061736ZOLPF.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximu" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" display="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20190806-00003066878KusMT.jpg, https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximu" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J8" r:id="rId4" display="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_korea/image/image_upload/PCA-20180322-0000222614415Nhh.jpg" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
